--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H2">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I2">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J2">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.196272</v>
+        <v>0.104012</v>
       </c>
       <c r="N2">
-        <v>0.588816</v>
+        <v>0.312036</v>
       </c>
       <c r="O2">
-        <v>0.02813229386822481</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P2">
-        <v>0.03089009369338271</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q2">
-        <v>1.093824641088</v>
+        <v>0.9603457430066666</v>
       </c>
       <c r="R2">
-        <v>9.844421769792</v>
+        <v>8.643111687059999</v>
       </c>
       <c r="S2">
-        <v>0.003893369090997675</v>
+        <v>0.003341205795692424</v>
       </c>
       <c r="T2">
-        <v>0.004616792669247708</v>
+        <v>0.003795353544265245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H3">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I3">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J3">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6892151609068061</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P3">
-        <v>0.7567787040415452</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q3">
-        <v>26.797691277596</v>
+        <v>44.39685362399944</v>
       </c>
       <c r="R3">
-        <v>241.179221498364</v>
+        <v>399.571682615995</v>
       </c>
       <c r="S3">
-        <v>0.09538393908050245</v>
+        <v>0.1544641872151095</v>
       </c>
       <c r="T3">
-        <v>0.1131071471567032</v>
+        <v>0.1754594706990875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H4">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I4">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J4">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03080033333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N4">
-        <v>0.092401</v>
+        <v>4.347989</v>
       </c>
       <c r="O4">
-        <v>0.004414710343669059</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P4">
-        <v>0.004847482995302872</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q4">
-        <v>0.171650380868</v>
+        <v>20.07255281501083</v>
       </c>
       <c r="R4">
-        <v>1.544853427812</v>
+        <v>120.435316890065</v>
       </c>
       <c r="S4">
-        <v>0.0006109738821249357</v>
+        <v>0.06983581724419735</v>
       </c>
       <c r="T4">
-        <v>0.0007244984161964986</v>
+        <v>0.05288542175126044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H5">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I5">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J5">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.868607</v>
+        <v>0.047446</v>
       </c>
       <c r="N5">
-        <v>3.737214</v>
+        <v>0.142338</v>
       </c>
       <c r="O5">
-        <v>0.267833421212511</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P5">
-        <v>0.1960593642364025</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q5">
-        <v>10.413754285428</v>
+        <v>0.4380702623033333</v>
       </c>
       <c r="R5">
-        <v>62.48252571256799</v>
+        <v>3.94263236073</v>
       </c>
       <c r="S5">
-        <v>0.03706680900496195</v>
+        <v>0.001524120776279879</v>
       </c>
       <c r="T5">
-        <v>0.02930277403910543</v>
+        <v>0.001731284315859793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.573004</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H6">
-        <v>16.719012</v>
+        <v>58.181675</v>
       </c>
       <c r="I6">
-        <v>0.1383950099922425</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J6">
-        <v>0.1494586813194652</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.072589</v>
+        <v>0.104012</v>
       </c>
       <c r="N6">
-        <v>0.217767</v>
+        <v>0.312036</v>
       </c>
       <c r="O6">
-        <v>0.01040441366878908</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P6">
-        <v>0.01142435503336674</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q6">
-        <v>0.404538787356</v>
+        <v>2.017197460033333</v>
       </c>
       <c r="R6">
-        <v>3.640849086204</v>
+        <v>18.1547771403</v>
       </c>
       <c r="S6">
-        <v>0.001439918933655489</v>
+        <v>0.007018172250566869</v>
       </c>
       <c r="T6">
-        <v>0.001707469038212389</v>
+        <v>0.007972105447618165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>58.181675</v>
       </c>
       <c r="I7">
-        <v>0.4816106055184604</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J7">
-        <v>0.5201118596276919</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.196272</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N7">
-        <v>0.588816</v>
+        <v>14.425447</v>
       </c>
       <c r="O7">
-        <v>0.02813229386822481</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P7">
-        <v>0.03089009369338271</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q7">
-        <v>3.8064779052</v>
+        <v>93.2551854537472</v>
       </c>
       <c r="R7">
-        <v>34.2583011468</v>
+        <v>839.296669083725</v>
       </c>
       <c r="S7">
-        <v>0.01354881108449902</v>
+        <v>0.3244506141516463</v>
       </c>
       <c r="T7">
-        <v>0.01606630407493892</v>
+        <v>0.368551015309218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>58.181675</v>
       </c>
       <c r="I8">
-        <v>0.4816106055184604</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J8">
-        <v>0.5201118596276919</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.808482333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N8">
-        <v>14.425447</v>
+        <v>4.347989</v>
       </c>
       <c r="O8">
-        <v>0.6892151609068061</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P8">
-        <v>0.7567787040415452</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q8">
-        <v>93.2551854537472</v>
+        <v>42.16221381692917</v>
       </c>
       <c r="R8">
-        <v>839.296669083725</v>
+        <v>252.973282901575</v>
       </c>
       <c r="S8">
-        <v>0.33193333097683</v>
+        <v>0.1466894961426085</v>
       </c>
       <c r="T8">
-        <v>0.3936095790856828</v>
+        <v>0.1110853452585082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>58.181675</v>
       </c>
       <c r="I9">
-        <v>0.4816106055184604</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J9">
-        <v>0.5201118596276919</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03080033333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>0.092401</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.004414710343669059</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P9">
-        <v>0.004847482995302872</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q9">
-        <v>0.5973383279638889</v>
+        <v>0.9201625840166665</v>
       </c>
       <c r="R9">
-        <v>5.376044951675</v>
+        <v>8.281463256149999</v>
       </c>
       <c r="S9">
-        <v>0.002126171321803066</v>
+        <v>0.0032014017671076</v>
       </c>
       <c r="T9">
-        <v>0.00252123339520059</v>
+        <v>0.003636546889471325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.39389166666666</v>
+        <v>3.072172</v>
       </c>
       <c r="H10">
-        <v>58.181675</v>
+        <v>9.216516</v>
       </c>
       <c r="I10">
-        <v>0.4816106055184604</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J10">
-        <v>0.5201118596276919</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.868607</v>
+        <v>0.104012</v>
       </c>
       <c r="N10">
-        <v>3.737214</v>
+        <v>0.312036</v>
       </c>
       <c r="O10">
-        <v>0.267833421212511</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P10">
-        <v>0.1960593642364025</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q10">
-        <v>36.23956172557499</v>
+        <v>0.319542754064</v>
       </c>
       <c r="R10">
-        <v>217.43737035345</v>
+        <v>2.875884786576</v>
       </c>
       <c r="S10">
-        <v>0.1289914161682383</v>
+        <v>0.001111743462836117</v>
       </c>
       <c r="T10">
-        <v>0.1019728005304183</v>
+        <v>0.001262855313320904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.39389166666666</v>
+        <v>3.072172</v>
       </c>
       <c r="H11">
-        <v>58.181675</v>
+        <v>9.216516</v>
       </c>
       <c r="I11">
-        <v>0.4816106055184604</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J11">
-        <v>0.5201118596276919</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.072589</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N11">
-        <v>0.217767</v>
+        <v>14.425447</v>
       </c>
       <c r="O11">
-        <v>0.01040441366878908</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P11">
-        <v>0.01142435503336674</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q11">
-        <v>1.407783202191667</v>
+        <v>14.77248478696133</v>
       </c>
       <c r="R11">
-        <v>12.670048819725</v>
+        <v>132.952363082652</v>
       </c>
       <c r="S11">
-        <v>0.005010875967090056</v>
+        <v>0.0513959812353026</v>
       </c>
       <c r="T11">
-        <v>0.00594194254145136</v>
+        <v>0.05838189308598717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.432072333333333</v>
+        <v>3.072172</v>
       </c>
       <c r="H12">
-        <v>10.296217</v>
+        <v>9.216516</v>
       </c>
       <c r="I12">
-        <v>0.08522902277941405</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J12">
-        <v>0.09204246132481154</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.196272</v>
+        <v>2.1739945</v>
       </c>
       <c r="N12">
-        <v>0.588816</v>
+        <v>4.347989</v>
       </c>
       <c r="O12">
-        <v>0.02813229386822481</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P12">
-        <v>0.03089009369338271</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q12">
-        <v>0.6736197010079998</v>
+        <v>6.678885031054</v>
       </c>
       <c r="R12">
-        <v>6.062577309071999</v>
+        <v>40.073310186324</v>
       </c>
       <c r="S12">
-        <v>0.002397687914932103</v>
+        <v>0.02323697432619961</v>
       </c>
       <c r="T12">
-        <v>0.002843200254092983</v>
+        <v>0.01759694718209067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.432072333333333</v>
+        <v>3.072172</v>
       </c>
       <c r="H13">
-        <v>10.296217</v>
+        <v>9.216516</v>
       </c>
       <c r="I13">
-        <v>0.08522902277941405</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J13">
-        <v>0.09204246132481154</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.808482333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N13">
-        <v>14.425447</v>
+        <v>0.142338</v>
       </c>
       <c r="O13">
-        <v>0.6892151609068061</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P13">
-        <v>0.7567787040415452</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q13">
-        <v>16.50305918155544</v>
+        <v>0.145762272712</v>
       </c>
       <c r="R13">
-        <v>148.527532633999</v>
+        <v>1.311860454408</v>
       </c>
       <c r="S13">
-        <v>0.0587411346488437</v>
+        <v>0.0005071316803611356</v>
       </c>
       <c r="T13">
-        <v>0.06965577459818494</v>
+        <v>0.0005760626965717763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.432072333333333</v>
+        <v>2.432257</v>
       </c>
       <c r="H14">
-        <v>10.296217</v>
+        <v>4.864514</v>
       </c>
       <c r="I14">
-        <v>0.08522902277941405</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J14">
-        <v>0.09204246132481154</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03080033333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N14">
-        <v>0.092401</v>
+        <v>0.312036</v>
       </c>
       <c r="O14">
-        <v>0.004414710343669059</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P14">
-        <v>0.004847482995302872</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q14">
-        <v>0.1057089718907778</v>
+        <v>0.252983915084</v>
       </c>
       <c r="R14">
-        <v>0.9513807470169998</v>
+        <v>1.517903490504</v>
       </c>
       <c r="S14">
-        <v>0.0003762614484450851</v>
+        <v>0.000880173968022424</v>
       </c>
       <c r="T14">
-        <v>0.0004461742661178462</v>
+        <v>0.0006665400843034312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.432072333333333</v>
+        <v>2.432257</v>
       </c>
       <c r="H15">
-        <v>10.296217</v>
+        <v>4.864514</v>
       </c>
       <c r="I15">
-        <v>0.08522902277941405</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J15">
-        <v>0.09204246132481154</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.868607</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N15">
-        <v>3.737214</v>
+        <v>14.425447</v>
       </c>
       <c r="O15">
-        <v>0.267833421212511</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P15">
-        <v>0.1960593642364025</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q15">
-        <v>6.413194386572998</v>
+        <v>11.69546481462633</v>
       </c>
       <c r="R15">
-        <v>38.47916631943799</v>
+        <v>70.172788887758</v>
       </c>
       <c r="S15">
-        <v>0.02282718075760949</v>
+        <v>0.04069050662900169</v>
       </c>
       <c r="T15">
-        <v>0.01804578645009621</v>
+        <v>0.03081419662953851</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.432072333333333</v>
+        <v>2.432257</v>
       </c>
       <c r="H16">
-        <v>10.296217</v>
+        <v>4.864514</v>
       </c>
       <c r="I16">
-        <v>0.08522902277941405</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J16">
-        <v>0.09204246132481154</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.072589</v>
+        <v>2.1739945</v>
       </c>
       <c r="N16">
-        <v>0.217767</v>
+        <v>4.347989</v>
       </c>
       <c r="O16">
-        <v>0.01040441366878908</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P16">
-        <v>0.01142435503336674</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q16">
-        <v>0.2491306986043333</v>
+        <v>5.2877133405865</v>
       </c>
       <c r="R16">
-        <v>2.242176287439</v>
+        <v>21.150853362346</v>
       </c>
       <c r="S16">
-        <v>0.0008867580095836716</v>
+        <v>0.01839685195481219</v>
       </c>
       <c r="T16">
-        <v>0.001051525756319575</v>
+        <v>0.00928773908975372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.9426925</v>
+        <v>2.432257</v>
       </c>
       <c r="H17">
-        <v>17.885385</v>
+        <v>4.864514</v>
       </c>
       <c r="I17">
-        <v>0.2220748483035455</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J17">
-        <v>0.1598854081204645</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.196272</v>
+        <v>0.047446</v>
       </c>
       <c r="N17">
-        <v>0.588816</v>
+        <v>0.142338</v>
       </c>
       <c r="O17">
-        <v>0.02813229386822481</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P17">
-        <v>0.03089009369338271</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q17">
-        <v>1.75520014236</v>
+        <v>0.115400865622</v>
       </c>
       <c r="R17">
-        <v>10.53120085416</v>
+        <v>0.6924051937319999</v>
       </c>
       <c r="S17">
-        <v>0.006247474893216787</v>
+        <v>0.0004014991932353183</v>
       </c>
       <c r="T17">
-        <v>0.004938875237045881</v>
+        <v>0.000304048194822334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.158463999999999</v>
+      </c>
+      <c r="H18">
+        <v>18.475392</v>
+      </c>
+      <c r="I18">
+        <v>0.1528541222070204</v>
+      </c>
+      <c r="J18">
+        <v>0.1559931745083229</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>8.9426925</v>
-      </c>
-      <c r="H18">
-        <v>17.885385</v>
-      </c>
-      <c r="I18">
-        <v>0.2220748483035455</v>
-      </c>
-      <c r="J18">
-        <v>0.1598854081204645</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.808482333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N18">
-        <v>14.425447</v>
+        <v>0.312036</v>
       </c>
       <c r="O18">
-        <v>0.6892151609068061</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P18">
-        <v>0.7567787040415452</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q18">
-        <v>43.0007788986825</v>
+        <v>0.6405541575679999</v>
       </c>
       <c r="R18">
-        <v>258.004673392095</v>
+        <v>5.764987418112</v>
       </c>
       <c r="S18">
-        <v>0.1530573523068826</v>
+        <v>0.002228596606281018</v>
       </c>
       <c r="T18">
-        <v>0.1209978719525587</v>
+        <v>0.00253151483194805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.9426925</v>
+        <v>6.158463999999999</v>
       </c>
       <c r="H19">
-        <v>17.885385</v>
+        <v>18.475392</v>
       </c>
       <c r="I19">
-        <v>0.2220748483035455</v>
+        <v>0.1528541222070204</v>
       </c>
       <c r="J19">
-        <v>0.1598854081204645</v>
+        <v>0.1559931745083229</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03080033333333333</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N19">
-        <v>0.092401</v>
+        <v>14.425447</v>
       </c>
       <c r="O19">
-        <v>0.004414710343669059</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P19">
-        <v>0.004847482995302872</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q19">
-        <v>0.2754379098975</v>
+        <v>29.61286534446933</v>
       </c>
       <c r="R19">
-        <v>1.652627459385</v>
+        <v>266.515788100224</v>
       </c>
       <c r="S19">
-        <v>0.0009803961298743993</v>
+        <v>0.1030281833771959</v>
       </c>
       <c r="T19">
-        <v>0.0007750417970610113</v>
+        <v>0.1170321150058984</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.9426925</v>
+        <v>6.158463999999999</v>
       </c>
       <c r="H20">
-        <v>17.885385</v>
+        <v>18.475392</v>
       </c>
       <c r="I20">
-        <v>0.2220748483035455</v>
+        <v>0.1528541222070204</v>
       </c>
       <c r="J20">
-        <v>0.1598854081204645</v>
+        <v>0.1559931745083229</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.868607</v>
+        <v>2.1739945</v>
       </c>
       <c r="N20">
-        <v>3.737214</v>
+        <v>4.347989</v>
       </c>
       <c r="O20">
-        <v>0.267833421212511</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P20">
-        <v>0.1960593642364025</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q20">
-        <v>16.7103778043475</v>
+        <v>13.388466864448</v>
       </c>
       <c r="R20">
-        <v>66.84151121738999</v>
+        <v>80.33080118668799</v>
       </c>
       <c r="S20">
-        <v>0.05947906638638797</v>
+        <v>0.04658074803651116</v>
       </c>
       <c r="T20">
-        <v>0.03134703146677601</v>
+        <v>0.03527477163739751</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.9426925</v>
+        <v>6.158463999999999</v>
       </c>
       <c r="H21">
-        <v>17.885385</v>
+        <v>18.475392</v>
       </c>
       <c r="I21">
-        <v>0.2220748483035455</v>
+        <v>0.1528541222070204</v>
       </c>
       <c r="J21">
-        <v>0.1598854081204645</v>
+        <v>0.1559931745083229</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.072589</v>
+        <v>0.047446</v>
       </c>
       <c r="N21">
-        <v>0.217767</v>
+        <v>0.142338</v>
       </c>
       <c r="O21">
-        <v>0.01040441366878908</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P21">
-        <v>0.01142435503336674</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q21">
-        <v>0.6491411058825</v>
+        <v>0.292194482944</v>
       </c>
       <c r="R21">
-        <v>3.894846635295</v>
+        <v>2.629750346496</v>
       </c>
       <c r="S21">
-        <v>0.00231055858718367</v>
+        <v>0.001016594187032354</v>
       </c>
       <c r="T21">
-        <v>0.001826587667022925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.927161333333333</v>
-      </c>
-      <c r="H22">
-        <v>8.781483999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.0726905134063375</v>
-      </c>
-      <c r="J22">
-        <v>0.07850158960756667</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.196272</v>
-      </c>
-      <c r="N22">
-        <v>0.588816</v>
-      </c>
-      <c r="O22">
-        <v>0.02813229386822481</v>
-      </c>
-      <c r="P22">
-        <v>0.03089009369338271</v>
-      </c>
-      <c r="Q22">
-        <v>0.5745198092159999</v>
-      </c>
-      <c r="R22">
-        <v>5.170678282943999</v>
-      </c>
-      <c r="S22">
-        <v>0.002044950884579222</v>
-      </c>
-      <c r="T22">
-        <v>0.002424921458057213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.927161333333333</v>
-      </c>
-      <c r="H23">
-        <v>8.781483999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.0726905134063375</v>
-      </c>
-      <c r="J23">
-        <v>0.07850158960756667</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.808482333333333</v>
-      </c>
-      <c r="N23">
-        <v>14.425447</v>
-      </c>
-      <c r="O23">
-        <v>0.6892151609068061</v>
-      </c>
-      <c r="P23">
-        <v>0.7567787040415452</v>
-      </c>
-      <c r="Q23">
-        <v>14.07520355814978</v>
-      </c>
-      <c r="R23">
-        <v>126.676832023348</v>
-      </c>
-      <c r="S23">
-        <v>0.05009940389374725</v>
-      </c>
-      <c r="T23">
-        <v>0.05940833124841554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.927161333333333</v>
-      </c>
-      <c r="H24">
-        <v>8.781483999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.0726905134063375</v>
-      </c>
-      <c r="J24">
-        <v>0.07850158960756667</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03080033333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.092401</v>
-      </c>
-      <c r="O24">
-        <v>0.004414710343669059</v>
-      </c>
-      <c r="P24">
-        <v>0.004847482995302872</v>
-      </c>
-      <c r="Q24">
-        <v>0.09015754478711109</v>
-      </c>
-      <c r="R24">
-        <v>0.8114179030839999</v>
-      </c>
-      <c r="S24">
-        <v>0.0003209075614215726</v>
-      </c>
-      <c r="T24">
-        <v>0.0003805351207269241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.927161333333333</v>
-      </c>
-      <c r="H25">
-        <v>8.781483999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.0726905134063375</v>
-      </c>
-      <c r="J25">
-        <v>0.07850158960756667</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.868607</v>
-      </c>
-      <c r="N25">
-        <v>3.737214</v>
-      </c>
-      <c r="O25">
-        <v>0.267833421212511</v>
-      </c>
-      <c r="P25">
-        <v>0.1960593642364025</v>
-      </c>
-      <c r="Q25">
-        <v>5.469714157595999</v>
-      </c>
-      <c r="R25">
-        <v>32.818284945576</v>
-      </c>
-      <c r="S25">
-        <v>0.01946894889531327</v>
-      </c>
-      <c r="T25">
-        <v>0.0153909717500065</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.927161333333333</v>
-      </c>
-      <c r="H26">
-        <v>8.781483999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0726905134063375</v>
-      </c>
-      <c r="J26">
-        <v>0.07850158960756667</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.072589</v>
-      </c>
-      <c r="N26">
-        <v>0.217767</v>
-      </c>
-      <c r="O26">
-        <v>0.01040441366878908</v>
-      </c>
-      <c r="P26">
-        <v>0.01142435503336674</v>
-      </c>
-      <c r="Q26">
-        <v>0.2124797140253333</v>
-      </c>
-      <c r="R26">
-        <v>1.912317426228</v>
-      </c>
-      <c r="S26">
-        <v>0.000756302171276194</v>
-      </c>
-      <c r="T26">
-        <v>0.0008968300303604949</v>
+        <v>0.001154773033078945</v>
       </c>
     </row>
   </sheetData>
